--- a/data/EDF_TURF_data.xlsx
+++ b/data/EDF_TURF_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="0" windowWidth="19620" windowHeight="13460" tabRatio="500"/>
+    <workbookView xWindow="780" yWindow="0" windowWidth="22980" windowHeight="14500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="314">
   <si>
     <t>common_name</t>
   </si>
@@ -595,9 +595,6 @@
   </si>
   <si>
     <t>Finfish - Reef</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>Giant clam</t>
@@ -1347,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="C152" sqref="C152:D152"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3124,12 +3121,8 @@
       <c r="F68" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
     </row>
     <row r="69" spans="1:8" ht="30">
       <c r="A69" t="s">
@@ -3145,17 +3138,13 @@
         <v>189</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G69" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
@@ -3171,17 +3160,13 @@
         <v>189</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
     </row>
     <row r="71" spans="1:8" ht="30">
       <c r="A71" t="s">
@@ -3197,17 +3182,13 @@
         <v>189</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G71" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H71" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
@@ -3223,17 +3204,13 @@
         <v>189</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G72" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
@@ -3254,12 +3231,8 @@
       <c r="F73" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G73" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H73" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
@@ -3275,17 +3248,13 @@
         <v>189</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
@@ -3301,17 +3270,13 @@
         <v>189</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G75" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
@@ -3327,17 +3292,13 @@
         <v>189</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G76" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
@@ -3353,33 +3314,29 @@
         <v>189</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
     </row>
     <row r="78" spans="1:8" ht="30">
       <c r="A78" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B78">
         <v>1996</v>
       </c>
       <c r="C78" t="s">
+        <v>202</v>
+      </c>
+      <c r="D78" t="s">
+        <v>202</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="D78" t="s">
-        <v>203</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>12</v>
@@ -3388,50 +3345,50 @@
         <v>148</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="30">
       <c r="A79" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B79">
         <v>1996</v>
       </c>
       <c r="C79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E79" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" s="1" t="s">
+      <c r="H79" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="30">
       <c r="A80" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B80">
         <v>1996</v>
       </c>
       <c r="C80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>12</v>
@@ -3440,128 +3397,128 @@
         <v>22</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="30">
       <c r="A81" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B81">
         <v>1996</v>
       </c>
       <c r="C81" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D81" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E81" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" s="1" t="s">
+      <c r="H81" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="45">
       <c r="A82" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B82">
         <v>1996</v>
       </c>
       <c r="C82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E82" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" s="1" t="s">
+      <c r="H82" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="30">
       <c r="A83" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B83">
         <v>1996</v>
       </c>
       <c r="C83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E83" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" s="1" t="s">
+      <c r="H83" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="30">
       <c r="A84" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B84">
         <v>1996</v>
       </c>
       <c r="C84" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D84" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E84" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" s="1" t="s">
+      <c r="H84" s="1" t="s">
         <v>221</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="30">
       <c r="A85" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B85">
         <v>1949</v>
       </c>
       <c r="C85" t="s">
+        <v>223</v>
+      </c>
+      <c r="D85" t="s">
+        <v>223</v>
+      </c>
+      <c r="E85" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="D85" t="s">
-        <v>224</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>12</v>
@@ -3575,16 +3532,16 @@
     </row>
     <row r="86" spans="1:8" ht="30">
       <c r="A86" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B86">
         <v>1949</v>
       </c>
       <c r="C86" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D86" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>78</v>
@@ -3601,51 +3558,51 @@
     </row>
     <row r="87" spans="1:8" ht="30">
       <c r="A87" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B87">
         <v>1949</v>
       </c>
       <c r="C87" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D87" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E87" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" s="1" t="s">
+      <c r="H87" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B88">
         <v>1949</v>
       </c>
       <c r="C88" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D88" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>79</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>81</v>
@@ -3653,51 +3610,51 @@
     </row>
     <row r="89" spans="1:8" ht="45">
       <c r="A89" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B89">
         <v>1949</v>
       </c>
       <c r="C89" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D89" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E89" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="G89" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="H89" s="1" t="s">
         <v>233</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="30">
       <c r="A90" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B90">
         <v>1949</v>
       </c>
       <c r="C90" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D90" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>81</v>
@@ -3705,201 +3662,201 @@
     </row>
     <row r="91" spans="1:8" ht="30">
       <c r="A91" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B91">
         <v>1949</v>
       </c>
       <c r="C91" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D91" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G91" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H91" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="30">
       <c r="A92" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B92">
         <v>1949</v>
       </c>
       <c r="C92" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D92" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G92" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H92" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="30">
       <c r="A93" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B93">
         <v>1949</v>
       </c>
       <c r="C93" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D93" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>79</v>
       </c>
       <c r="G93" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H93" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="30">
       <c r="A94" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B94">
         <v>1949</v>
       </c>
       <c r="C94" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D94" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G94" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="H94" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="30">
       <c r="A95" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B95">
         <v>1949</v>
       </c>
       <c r="C95" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D95" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G95" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="H95" s="1" t="s">
         <v>250</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="30">
       <c r="A96" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B96">
         <v>1949</v>
       </c>
       <c r="C96" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D96" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>79</v>
       </c>
       <c r="G96" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H96" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="30">
       <c r="A97" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B97">
         <v>2003</v>
       </c>
       <c r="C97" t="s">
+        <v>255</v>
+      </c>
+      <c r="D97" t="s">
         <v>256</v>
       </c>
-      <c r="D97" t="s">
+      <c r="E97" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="F97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" s="1" t="s">
+      <c r="H97" s="1" t="s">
         <v>259</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="30">
       <c r="A98" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B98">
         <v>1992</v>
       </c>
       <c r="C98" t="s">
+        <v>255</v>
+      </c>
+      <c r="D98" t="s">
         <v>256</v>
       </c>
-      <c r="D98" t="s">
-        <v>257</v>
-      </c>
       <c r="E98" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>12</v>
@@ -3908,24 +3865,24 @@
         <v>13</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="30">
       <c r="A99" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B99">
         <v>1992</v>
       </c>
       <c r="C99" t="s">
+        <v>255</v>
+      </c>
+      <c r="D99" t="s">
         <v>256</v>
       </c>
-      <c r="D99" t="s">
-        <v>257</v>
-      </c>
       <c r="E99" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>12</v>
@@ -3934,21 +3891,21 @@
         <v>13</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="30">
       <c r="A100" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B100">
         <v>1992</v>
       </c>
       <c r="C100" t="s">
+        <v>255</v>
+      </c>
+      <c r="D100" t="s">
         <v>256</v>
-      </c>
-      <c r="D100" t="s">
-        <v>257</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>34</v>
@@ -3957,24 +3914,24 @@
         <v>12</v>
       </c>
       <c r="G100" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H100" s="1" t="s">
         <v>265</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="30">
       <c r="A101" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B101">
         <v>1992</v>
       </c>
       <c r="C101" t="s">
+        <v>255</v>
+      </c>
+      <c r="D101" t="s">
         <v>256</v>
-      </c>
-      <c r="D101" t="s">
-        <v>257</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>34</v>
@@ -3983,111 +3940,111 @@
         <v>12</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="30">
       <c r="A102" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B102">
         <v>1992</v>
       </c>
       <c r="C102" t="s">
+        <v>255</v>
+      </c>
+      <c r="D102" t="s">
         <v>256</v>
       </c>
-      <c r="D102" t="s">
-        <v>257</v>
-      </c>
       <c r="E102" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G102" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H102" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="30">
       <c r="A103" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B103">
         <v>1976</v>
       </c>
       <c r="C103" t="s">
+        <v>255</v>
+      </c>
+      <c r="D103" t="s">
         <v>256</v>
       </c>
-      <c r="D103" t="s">
-        <v>257</v>
-      </c>
       <c r="E103" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" s="1" t="s">
+      <c r="H103" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="30">
       <c r="A104" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B104">
         <v>1976</v>
       </c>
       <c r="C104" t="s">
+        <v>255</v>
+      </c>
+      <c r="D104" t="s">
         <v>256</v>
       </c>
-      <c r="D104" t="s">
-        <v>257</v>
-      </c>
       <c r="E104" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>12</v>
       </c>
       <c r="G104" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H104" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="30">
       <c r="A105" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B105">
         <v>1969</v>
       </c>
       <c r="C105" t="s">
+        <v>255</v>
+      </c>
+      <c r="D105" t="s">
         <v>256</v>
       </c>
-      <c r="D105" t="s">
-        <v>257</v>
-      </c>
       <c r="E105" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>38</v>
@@ -4095,16 +4052,16 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
+        <v>276</v>
+      </c>
+      <c r="B106" t="s">
+        <v>200</v>
+      </c>
+      <c r="C106" t="s">
         <v>277</v>
       </c>
-      <c r="B106" t="s">
-        <v>201</v>
-      </c>
-      <c r="C106" t="s">
-        <v>278</v>
-      </c>
       <c r="D106" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>190</v>
@@ -4112,129 +4069,109 @@
       <c r="F106" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G106" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
     </row>
     <row r="107" spans="1:8" ht="30">
       <c r="A107" t="s">
+        <v>276</v>
+      </c>
+      <c r="B107" t="s">
+        <v>200</v>
+      </c>
+      <c r="C107" t="s">
         <v>277</v>
       </c>
-      <c r="B107" t="s">
-        <v>201</v>
-      </c>
-      <c r="C107" t="s">
-        <v>278</v>
-      </c>
       <c r="D107" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G107" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
+        <v>276</v>
+      </c>
+      <c r="B108" t="s">
+        <v>200</v>
+      </c>
+      <c r="C108" t="s">
         <v>277</v>
       </c>
-      <c r="B108" t="s">
-        <v>201</v>
-      </c>
-      <c r="C108" t="s">
-        <v>278</v>
-      </c>
       <c r="D108" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G108" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
     </row>
     <row r="109" spans="1:8" ht="30">
       <c r="A109" t="s">
+        <v>276</v>
+      </c>
+      <c r="B109" t="s">
+        <v>200</v>
+      </c>
+      <c r="C109" t="s">
         <v>277</v>
       </c>
-      <c r="B109" t="s">
-        <v>201</v>
-      </c>
-      <c r="C109" t="s">
-        <v>278</v>
-      </c>
       <c r="D109" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G109" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
+        <v>276</v>
+      </c>
+      <c r="B110" t="s">
+        <v>200</v>
+      </c>
+      <c r="C110" t="s">
         <v>277</v>
       </c>
-      <c r="B110" t="s">
-        <v>201</v>
-      </c>
-      <c r="C110" t="s">
-        <v>278</v>
-      </c>
       <c r="D110" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G110" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
+        <v>276</v>
+      </c>
+      <c r="B111" t="s">
+        <v>200</v>
+      </c>
+      <c r="C111" t="s">
         <v>277</v>
       </c>
-      <c r="B111" t="s">
-        <v>201</v>
-      </c>
-      <c r="C111" t="s">
-        <v>278</v>
-      </c>
       <c r="D111" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>171</v>
@@ -4242,129 +4179,109 @@
       <c r="F111" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G111" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
+        <v>276</v>
+      </c>
+      <c r="B112" t="s">
+        <v>200</v>
+      </c>
+      <c r="C112" t="s">
         <v>277</v>
       </c>
-      <c r="B112" t="s">
-        <v>201</v>
-      </c>
-      <c r="C112" t="s">
-        <v>278</v>
-      </c>
       <c r="D112" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G112" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
+        <v>276</v>
+      </c>
+      <c r="B113" t="s">
+        <v>200</v>
+      </c>
+      <c r="C113" t="s">
         <v>277</v>
       </c>
-      <c r="B113" t="s">
-        <v>201</v>
-      </c>
-      <c r="C113" t="s">
-        <v>278</v>
-      </c>
       <c r="D113" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G113" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H113" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
+        <v>276</v>
+      </c>
+      <c r="B114" t="s">
+        <v>200</v>
+      </c>
+      <c r="C114" t="s">
         <v>277</v>
       </c>
-      <c r="B114" t="s">
-        <v>201</v>
-      </c>
-      <c r="C114" t="s">
-        <v>278</v>
-      </c>
       <c r="D114" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G114" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H114" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
+        <v>276</v>
+      </c>
+      <c r="B115" t="s">
+        <v>200</v>
+      </c>
+      <c r="C115" t="s">
         <v>277</v>
       </c>
-      <c r="B115" t="s">
-        <v>201</v>
-      </c>
-      <c r="C115" t="s">
-        <v>278</v>
-      </c>
       <c r="D115" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G115" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H115" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B116">
         <v>1988</v>
       </c>
       <c r="C116" t="s">
+        <v>279</v>
+      </c>
+      <c r="D116" t="s">
         <v>280</v>
-      </c>
-      <c r="D116" t="s">
-        <v>281</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>190</v>
@@ -4372,129 +4289,109 @@
       <c r="F116" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G116" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H116" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
     </row>
     <row r="117" spans="1:8" ht="30">
       <c r="A117" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B117">
         <v>1988</v>
       </c>
       <c r="C117" t="s">
+        <v>279</v>
+      </c>
+      <c r="D117" t="s">
         <v>280</v>
       </c>
-      <c r="D117" t="s">
-        <v>281</v>
-      </c>
       <c r="E117" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G117" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H117" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B118">
         <v>1988</v>
       </c>
       <c r="C118" t="s">
+        <v>279</v>
+      </c>
+      <c r="D118" t="s">
         <v>280</v>
       </c>
-      <c r="D118" t="s">
-        <v>281</v>
-      </c>
       <c r="E118" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G118" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H118" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
     </row>
     <row r="119" spans="1:8" ht="30">
       <c r="A119" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B119">
         <v>1988</v>
       </c>
       <c r="C119" t="s">
+        <v>279</v>
+      </c>
+      <c r="D119" t="s">
         <v>280</v>
       </c>
-      <c r="D119" t="s">
-        <v>281</v>
-      </c>
       <c r="E119" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G119" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H119" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B120">
         <v>1988</v>
       </c>
       <c r="C120" t="s">
+        <v>279</v>
+      </c>
+      <c r="D120" t="s">
         <v>280</v>
       </c>
-      <c r="D120" t="s">
-        <v>281</v>
-      </c>
       <c r="E120" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G120" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H120" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B121">
         <v>1988</v>
       </c>
       <c r="C121" t="s">
+        <v>279</v>
+      </c>
+      <c r="D121" t="s">
         <v>280</v>
-      </c>
-      <c r="D121" t="s">
-        <v>281</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>171</v>
@@ -4502,129 +4399,109 @@
       <c r="F121" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G121" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B122">
         <v>1988</v>
       </c>
       <c r="C122" t="s">
+        <v>279</v>
+      </c>
+      <c r="D122" t="s">
         <v>280</v>
       </c>
-      <c r="D122" t="s">
-        <v>281</v>
-      </c>
       <c r="E122" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G122" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H122" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B123">
         <v>1988</v>
       </c>
       <c r="C123" t="s">
+        <v>279</v>
+      </c>
+      <c r="D123" t="s">
         <v>280</v>
       </c>
-      <c r="D123" t="s">
-        <v>281</v>
-      </c>
       <c r="E123" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G123" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H123" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B124">
         <v>1988</v>
       </c>
       <c r="C124" t="s">
+        <v>279</v>
+      </c>
+      <c r="D124" t="s">
         <v>280</v>
       </c>
-      <c r="D124" t="s">
-        <v>281</v>
-      </c>
       <c r="E124" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G124" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H124" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B125">
         <v>1988</v>
       </c>
       <c r="C125" t="s">
+        <v>279</v>
+      </c>
+      <c r="D125" t="s">
         <v>280</v>
       </c>
-      <c r="D125" t="s">
-        <v>281</v>
-      </c>
       <c r="E125" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G125" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H125" s="1" t="s">
-        <v>201</v>
-      </c>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
+        <v>281</v>
+      </c>
+      <c r="B126" t="s">
+        <v>200</v>
+      </c>
+      <c r="C126" t="s">
         <v>282</v>
       </c>
-      <c r="B126" t="s">
-        <v>201</v>
-      </c>
-      <c r="C126" t="s">
-        <v>283</v>
-      </c>
       <c r="D126" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E126" s="1" t="s">
         <v>190</v>
@@ -4632,129 +4509,109 @@
       <c r="F126" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G126" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H126" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
     </row>
     <row r="127" spans="1:8" ht="30">
       <c r="A127" t="s">
+        <v>281</v>
+      </c>
+      <c r="B127" t="s">
+        <v>200</v>
+      </c>
+      <c r="C127" t="s">
         <v>282</v>
       </c>
-      <c r="B127" t="s">
-        <v>201</v>
-      </c>
-      <c r="C127" t="s">
-        <v>283</v>
-      </c>
       <c r="D127" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G127" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H127" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
+        <v>281</v>
+      </c>
+      <c r="B128" t="s">
+        <v>200</v>
+      </c>
+      <c r="C128" t="s">
         <v>282</v>
       </c>
-      <c r="B128" t="s">
-        <v>201</v>
-      </c>
-      <c r="C128" t="s">
-        <v>283</v>
-      </c>
       <c r="D128" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G128" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H128" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
     </row>
     <row r="129" spans="1:8" ht="30">
       <c r="A129" t="s">
+        <v>281</v>
+      </c>
+      <c r="B129" t="s">
+        <v>200</v>
+      </c>
+      <c r="C129" t="s">
         <v>282</v>
       </c>
-      <c r="B129" t="s">
-        <v>201</v>
-      </c>
-      <c r="C129" t="s">
-        <v>283</v>
-      </c>
       <c r="D129" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G129" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H129" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
+        <v>281</v>
+      </c>
+      <c r="B130" t="s">
+        <v>200</v>
+      </c>
+      <c r="C130" t="s">
         <v>282</v>
       </c>
-      <c r="B130" t="s">
-        <v>201</v>
-      </c>
-      <c r="C130" t="s">
-        <v>283</v>
-      </c>
       <c r="D130" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G130" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
+        <v>281</v>
+      </c>
+      <c r="B131" t="s">
+        <v>200</v>
+      </c>
+      <c r="C131" t="s">
         <v>282</v>
       </c>
-      <c r="B131" t="s">
-        <v>201</v>
-      </c>
-      <c r="C131" t="s">
-        <v>283</v>
-      </c>
       <c r="D131" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E131" s="1" t="s">
         <v>171</v>
@@ -4762,285 +4619,265 @@
       <c r="F131" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G131" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H131" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
+        <v>281</v>
+      </c>
+      <c r="B132" t="s">
+        <v>200</v>
+      </c>
+      <c r="C132" t="s">
         <v>282</v>
       </c>
-      <c r="B132" t="s">
-        <v>201</v>
-      </c>
-      <c r="C132" t="s">
-        <v>283</v>
-      </c>
       <c r="D132" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G132" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H132" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
+        <v>281</v>
+      </c>
+      <c r="B133" t="s">
+        <v>200</v>
+      </c>
+      <c r="C133" t="s">
         <v>282</v>
       </c>
-      <c r="B133" t="s">
-        <v>201</v>
-      </c>
-      <c r="C133" t="s">
-        <v>283</v>
-      </c>
       <c r="D133" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G133" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H133" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="G133" s="1"/>
+      <c r="H133" s="1"/>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
+        <v>281</v>
+      </c>
+      <c r="B134" t="s">
+        <v>200</v>
+      </c>
+      <c r="C134" t="s">
         <v>282</v>
       </c>
-      <c r="B134" t="s">
-        <v>201</v>
-      </c>
-      <c r="C134" t="s">
-        <v>283</v>
-      </c>
       <c r="D134" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G134" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H134" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="G134" s="1"/>
+      <c r="H134" s="1"/>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
+        <v>281</v>
+      </c>
+      <c r="B135" t="s">
+        <v>200</v>
+      </c>
+      <c r="C135" t="s">
         <v>282</v>
       </c>
-      <c r="B135" t="s">
-        <v>201</v>
-      </c>
-      <c r="C135" t="s">
-        <v>283</v>
-      </c>
       <c r="D135" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G135" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H135" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
     </row>
     <row r="136" spans="1:8" ht="30">
       <c r="A136" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B136">
         <v>1992</v>
       </c>
       <c r="C136" t="s">
+        <v>284</v>
+      </c>
+      <c r="D136" t="s">
         <v>285</v>
       </c>
-      <c r="D136" t="s">
+      <c r="E136" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G136" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H136" s="1" t="s">
         <v>288</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="30">
       <c r="A137" t="s">
+        <v>289</v>
+      </c>
+      <c r="B137" t="s">
+        <v>200</v>
+      </c>
+      <c r="C137" t="s">
         <v>290</v>
       </c>
-      <c r="B137" t="s">
-        <v>201</v>
-      </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
+        <v>290</v>
+      </c>
+      <c r="E137" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="D137" t="s">
-        <v>291</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>292</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G137" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H137" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="30">
       <c r="A138" t="s">
+        <v>289</v>
+      </c>
+      <c r="B138" t="s">
+        <v>200</v>
+      </c>
+      <c r="C138" t="s">
         <v>290</v>
       </c>
-      <c r="B138" t="s">
-        <v>201</v>
-      </c>
-      <c r="C138" t="s">
-        <v>291</v>
-      </c>
       <c r="D138" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G138" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H138" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="30">
       <c r="A139" t="s">
+        <v>289</v>
+      </c>
+      <c r="B139" t="s">
+        <v>200</v>
+      </c>
+      <c r="C139" t="s">
         <v>290</v>
       </c>
-      <c r="B139" t="s">
-        <v>201</v>
-      </c>
-      <c r="C139" t="s">
-        <v>291</v>
-      </c>
       <c r="D139" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="30">
       <c r="A140" t="s">
+        <v>289</v>
+      </c>
+      <c r="B140" t="s">
+        <v>200</v>
+      </c>
+      <c r="C140" t="s">
         <v>290</v>
       </c>
-      <c r="B140" t="s">
-        <v>201</v>
-      </c>
-      <c r="C140" t="s">
-        <v>291</v>
-      </c>
       <c r="D140" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="30">
       <c r="A141" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B141">
         <v>2004</v>
       </c>
       <c r="C141" t="s">
+        <v>302</v>
+      </c>
+      <c r="D141" t="s">
         <v>303</v>
       </c>
-      <c r="D141" t="s">
+      <c r="E141" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>54</v>
       </c>
       <c r="G141" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="H141" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
+        <v>307</v>
+      </c>
+      <c r="B142" t="s">
+        <v>200</v>
+      </c>
+      <c r="C142" t="s">
         <v>308</v>
       </c>
-      <c r="B142" t="s">
-        <v>201</v>
-      </c>
-      <c r="C142" t="s">
-        <v>309</v>
-      </c>
       <c r="D142" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E142" s="1" t="s">
         <v>190</v>
@@ -5048,129 +4885,109 @@
       <c r="F142" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G142" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H142" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
     </row>
     <row r="143" spans="1:8" ht="30">
       <c r="A143" t="s">
+        <v>307</v>
+      </c>
+      <c r="B143" t="s">
+        <v>200</v>
+      </c>
+      <c r="C143" t="s">
         <v>308</v>
       </c>
-      <c r="B143" t="s">
-        <v>201</v>
-      </c>
-      <c r="C143" t="s">
-        <v>309</v>
-      </c>
       <c r="D143" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G143" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H143" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" t="s">
+        <v>307</v>
+      </c>
+      <c r="B144" t="s">
+        <v>200</v>
+      </c>
+      <c r="C144" t="s">
         <v>308</v>
       </c>
-      <c r="B144" t="s">
-        <v>201</v>
-      </c>
-      <c r="C144" t="s">
-        <v>309</v>
-      </c>
       <c r="D144" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G144" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H144" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
     </row>
     <row r="145" spans="1:8" ht="30">
       <c r="A145" t="s">
+        <v>307</v>
+      </c>
+      <c r="B145" t="s">
+        <v>200</v>
+      </c>
+      <c r="C145" t="s">
         <v>308</v>
       </c>
-      <c r="B145" t="s">
-        <v>201</v>
-      </c>
-      <c r="C145" t="s">
-        <v>309</v>
-      </c>
       <c r="D145" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G145" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H145" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
+        <v>307</v>
+      </c>
+      <c r="B146" t="s">
+        <v>200</v>
+      </c>
+      <c r="C146" t="s">
         <v>308</v>
       </c>
-      <c r="B146" t="s">
-        <v>201</v>
-      </c>
-      <c r="C146" t="s">
-        <v>309</v>
-      </c>
       <c r="D146" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G146" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
+        <v>307</v>
+      </c>
+      <c r="B147" t="s">
+        <v>200</v>
+      </c>
+      <c r="C147" t="s">
         <v>308</v>
       </c>
-      <c r="B147" t="s">
-        <v>201</v>
-      </c>
-      <c r="C147" t="s">
-        <v>309</v>
-      </c>
       <c r="D147" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>171</v>
@@ -5178,141 +4995,121 @@
       <c r="F147" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G147" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H147" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
+        <v>307</v>
+      </c>
+      <c r="B148" t="s">
+        <v>200</v>
+      </c>
+      <c r="C148" t="s">
         <v>308</v>
       </c>
-      <c r="B148" t="s">
-        <v>201</v>
-      </c>
-      <c r="C148" t="s">
-        <v>309</v>
-      </c>
       <c r="D148" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G148" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H148" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
+        <v>307</v>
+      </c>
+      <c r="B149" t="s">
+        <v>200</v>
+      </c>
+      <c r="C149" t="s">
         <v>308</v>
       </c>
-      <c r="B149" t="s">
-        <v>201</v>
-      </c>
-      <c r="C149" t="s">
-        <v>309</v>
-      </c>
       <c r="D149" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G149" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H149" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
+        <v>307</v>
+      </c>
+      <c r="B150" t="s">
+        <v>200</v>
+      </c>
+      <c r="C150" t="s">
         <v>308</v>
       </c>
-      <c r="B150" t="s">
-        <v>201</v>
-      </c>
-      <c r="C150" t="s">
-        <v>309</v>
-      </c>
       <c r="D150" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G150" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H150" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
+        <v>307</v>
+      </c>
+      <c r="B151" t="s">
+        <v>200</v>
+      </c>
+      <c r="C151" t="s">
         <v>308</v>
       </c>
-      <c r="B151" t="s">
-        <v>201</v>
-      </c>
-      <c r="C151" t="s">
-        <v>309</v>
-      </c>
       <c r="D151" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G151" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H151" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
     </row>
     <row r="152" spans="1:8" ht="30">
       <c r="A152" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B152">
         <v>1997</v>
       </c>
       <c r="C152" t="s">
+        <v>310</v>
+      </c>
+      <c r="D152" t="s">
+        <v>310</v>
+      </c>
+      <c r="E152" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D152" t="s">
-        <v>311</v>
-      </c>
-      <c r="E152" s="1" t="s">
+      <c r="F152" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G152" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="F152" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G152" s="1" t="s">
+      <c r="H152" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="H152" s="1" t="s">
-        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/data/EDF_TURF_data.xlsx
+++ b/data/EDF_TURF_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="0" windowWidth="22980" windowHeight="14500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="250">
   <si>
     <t>common_name</t>
   </si>
@@ -27,12 +27,6 @@
     <t>fish_type</t>
   </si>
   <si>
-    <t>genus</t>
-  </si>
-  <si>
-    <t>species</t>
-  </si>
-  <si>
     <t>country</t>
   </si>
   <si>
@@ -60,528 +54,201 @@
     <t>Molluscs (e.g., Clams &amp; Squid)</t>
   </si>
   <si>
-    <t>Haliotis</t>
-  </si>
-  <si>
-    <t>rufescens</t>
-  </si>
-  <si>
     <t>Algas pardas</t>
   </si>
   <si>
     <t>Plants &amp; Algae</t>
   </si>
   <si>
-    <t>Macrocystis</t>
-  </si>
-  <si>
-    <t>pyrifera</t>
-  </si>
-  <si>
     <t>Almeja</t>
   </si>
   <si>
-    <t>Protothaca</t>
-  </si>
-  <si>
-    <t>thaca</t>
-  </si>
-  <si>
-    <t>Venus</t>
-  </si>
-  <si>
-    <t>antiqua</t>
-  </si>
-  <si>
     <t>Bacaladillo</t>
   </si>
   <si>
     <t>Finfish - Benthic, Demersal, Groundfish</t>
   </si>
   <si>
-    <t>Normanichthys</t>
-  </si>
-  <si>
-    <t>crockeri</t>
-  </si>
-  <si>
     <t>Bêche-de-mer</t>
   </si>
   <si>
     <t>Other Invertebrates</t>
   </si>
   <si>
-    <t>Athyionidium</t>
-  </si>
-  <si>
-    <t>chilensis</t>
-  </si>
-  <si>
-    <t>Pattalus</t>
-  </si>
-  <si>
-    <t>mollis</t>
-  </si>
-  <si>
     <t>Caracol</t>
   </si>
   <si>
-    <t>Argobuccinum</t>
-  </si>
-  <si>
-    <t>spp.</t>
-  </si>
-  <si>
     <t>Caracol palo palo</t>
   </si>
   <si>
-    <t>argus</t>
-  </si>
-  <si>
     <t>Caracol piquilhue</t>
   </si>
   <si>
-    <t>Adelomelon</t>
-  </si>
-  <si>
-    <t>ancilla</t>
-  </si>
-  <si>
     <t>Caracol rubio</t>
   </si>
   <si>
-    <t>Xanthochorus</t>
-  </si>
-  <si>
-    <t>cassidiformis</t>
-  </si>
-  <si>
     <t>Caracol tegula</t>
   </si>
   <si>
-    <t>Tegula</t>
-  </si>
-  <si>
-    <t>atra</t>
-  </si>
-  <si>
     <t>Caracol trophon</t>
   </si>
   <si>
-    <t>Trophon</t>
-  </si>
-  <si>
     <t>Caracol trumulco</t>
   </si>
   <si>
-    <t>Chorus</t>
-  </si>
-  <si>
-    <t>giganteus</t>
-  </si>
-  <si>
     <t>Centolla</t>
   </si>
   <si>
     <t>Crustaceans (e.g., Lobster &amp; Shrimp)</t>
   </si>
   <si>
-    <t>Lithodes</t>
-  </si>
-  <si>
-    <t>antarctica</t>
-  </si>
-  <si>
     <t>Centollon</t>
   </si>
   <si>
-    <t>Paralomis</t>
-  </si>
-  <si>
-    <t>granulosa</t>
-  </si>
-  <si>
     <t>Chasca</t>
   </si>
   <si>
-    <t>Gelidium</t>
-  </si>
-  <si>
     <t>Chicorea de mar</t>
   </si>
   <si>
-    <t>Chondracanthus</t>
-  </si>
-  <si>
-    <t>chamissoi</t>
-  </si>
-  <si>
     <t>Chocha</t>
   </si>
   <si>
-    <t>Calyptraea</t>
-  </si>
-  <si>
-    <t>trochiformis</t>
-  </si>
-  <si>
     <t>Cholga</t>
   </si>
   <si>
-    <t>Aulacomya</t>
-  </si>
-  <si>
-    <t>ater</t>
-  </si>
-  <si>
     <t>Chorito</t>
   </si>
   <si>
-    <t>Mytilus</t>
-  </si>
-  <si>
     <t>Choro zapato</t>
   </si>
   <si>
-    <t>Choromytilus</t>
-  </si>
-  <si>
-    <t>chorus</t>
-  </si>
-  <si>
     <t>Cochayuyo</t>
   </si>
   <si>
-    <t>Durvillaea</t>
-  </si>
-  <si>
     <t>Common mackerel</t>
   </si>
   <si>
     <t>Finfish - Pelagic</t>
   </si>
   <si>
-    <t>Scomber</t>
-  </si>
-  <si>
-    <t>japonicus</t>
-  </si>
-  <si>
     <t>Culengue</t>
   </si>
   <si>
-    <t>Gari</t>
-  </si>
-  <si>
-    <t>solida</t>
-  </si>
-  <si>
     <t>Disco</t>
   </si>
   <si>
-    <t>Semele</t>
-  </si>
-  <si>
     <t>Erizo</t>
   </si>
   <si>
-    <t>Loxechinus</t>
-  </si>
-  <si>
-    <t>albus</t>
-  </si>
-  <si>
     <t>Huepo</t>
   </si>
   <si>
-    <t>Perna</t>
-  </si>
-  <si>
-    <t>perna</t>
-  </si>
-  <si>
     <t>Huiro flotador</t>
   </si>
   <si>
-    <t>integrifolia</t>
-  </si>
-  <si>
     <t>Huiro negro</t>
   </si>
   <si>
-    <t>Lessonia</t>
-  </si>
-  <si>
-    <t>nigrescens</t>
-  </si>
-  <si>
     <t>Huiro palo</t>
   </si>
   <si>
-    <t>trabeculata</t>
-  </si>
-  <si>
     <t>Jaiba mora</t>
   </si>
   <si>
-    <t>Homalaspis</t>
-  </si>
-  <si>
-    <t>plana</t>
-  </si>
-  <si>
     <t>Jaiba peluda</t>
   </si>
   <si>
-    <t>Cancer</t>
-  </si>
-  <si>
-    <t>setosus</t>
-  </si>
-  <si>
     <t>Jaiba reina</t>
   </si>
   <si>
-    <t>coronatus</t>
-  </si>
-  <si>
     <t>Jibia</t>
   </si>
   <si>
-    <t>Sepia</t>
-  </si>
-  <si>
-    <t>bertheloti</t>
-  </si>
-  <si>
     <t>Lapa</t>
   </si>
   <si>
-    <t>Fissurella</t>
-  </si>
-  <si>
-    <t>bridgessi</t>
-  </si>
-  <si>
-    <t>nigra</t>
-  </si>
-  <si>
-    <t>pulchra</t>
-  </si>
-  <si>
     <t>Lapa bonete</t>
   </si>
   <si>
-    <t>costata</t>
-  </si>
-  <si>
     <t>Lapa negra</t>
   </si>
   <si>
-    <t>latimarginata</t>
-  </si>
-  <si>
     <t>Lapa picta</t>
   </si>
   <si>
-    <t>picta</t>
-  </si>
-  <si>
     <t>Lapa reina</t>
   </si>
   <si>
-    <t>maxima</t>
-  </si>
-  <si>
     <t>Lapa rosada</t>
   </si>
   <si>
-    <t>cumingi</t>
-  </si>
-  <si>
     <t>Locate</t>
   </si>
   <si>
-    <t>Thais</t>
-  </si>
-  <si>
-    <t>chocolata</t>
-  </si>
-  <si>
     <t>Loco</t>
   </si>
   <si>
-    <t>Concholepas</t>
-  </si>
-  <si>
-    <t>concholepas</t>
-  </si>
-  <si>
     <t>Luga cuchara</t>
   </si>
   <si>
-    <t>Mazzaella</t>
-  </si>
-  <si>
-    <t>laminariodes</t>
-  </si>
-  <si>
     <t>Luga negra</t>
   </si>
   <si>
-    <t>Sarcothalia</t>
-  </si>
-  <si>
-    <t>crispata</t>
-  </si>
-  <si>
     <t>Luga roja</t>
   </si>
   <si>
-    <t>Gigartina</t>
-  </si>
-  <si>
-    <t>skottsbergii</t>
-  </si>
-  <si>
     <t>Macha</t>
   </si>
   <si>
-    <t>Mesodesma</t>
-  </si>
-  <si>
-    <t>donacium</t>
-  </si>
-  <si>
     <t>Machuelo</t>
   </si>
   <si>
-    <t>Opisthonema</t>
-  </si>
-  <si>
-    <t>oglinum</t>
-  </si>
-  <si>
     <t>Navajuela</t>
   </si>
   <si>
-    <t>Ensis</t>
-  </si>
-  <si>
-    <t>macha</t>
-  </si>
-  <si>
-    <t>Tagelus</t>
-  </si>
-  <si>
-    <t>dombeii</t>
-  </si>
-  <si>
     <t>Ostion del norte</t>
   </si>
   <si>
-    <t>Argopecten</t>
-  </si>
-  <si>
-    <t>purpuratus</t>
-  </si>
-  <si>
     <t>Ostion del sur</t>
   </si>
   <si>
-    <t>Chlamys</t>
-  </si>
-  <si>
-    <t>vitrea</t>
-  </si>
-  <si>
     <t>Pelillo</t>
   </si>
   <si>
-    <t>Gracilaria</t>
-  </si>
-  <si>
     <t>Picoroco</t>
   </si>
   <si>
-    <t>Austromegabalanus</t>
-  </si>
-  <si>
-    <t>psittacus</t>
-  </si>
-  <si>
     <t>Picuyo</t>
   </si>
   <si>
-    <t>Odontocymbiola</t>
-  </si>
-  <si>
-    <t>magallanica</t>
-  </si>
-  <si>
     <t>Piure</t>
   </si>
   <si>
-    <t>Pyura</t>
-  </si>
-  <si>
     <t>Pulpo</t>
   </si>
   <si>
-    <t>Enteroctopus</t>
-  </si>
-  <si>
-    <t>megalocyathus</t>
-  </si>
-  <si>
     <t>Octopus</t>
   </si>
   <si>
-    <t>mimus</t>
-  </si>
-  <si>
     <t>Reineta</t>
   </si>
   <si>
     <t>Deepwater &amp; Arctic, Highly Migratory Species</t>
   </si>
   <si>
-    <t>Brama</t>
-  </si>
-  <si>
-    <t>australis</t>
-  </si>
-  <si>
     <t>Sardina austral</t>
   </si>
   <si>
-    <t>Sprattus</t>
-  </si>
-  <si>
-    <t>fuegensis</t>
-  </si>
-  <si>
     <t>Scallop</t>
   </si>
   <si>
-    <t>Pecten</t>
-  </si>
-  <si>
-    <t>maximus</t>
-  </si>
-  <si>
     <t>Taca</t>
   </si>
   <si>
-    <t>Mulinia</t>
-  </si>
-  <si>
     <t>Taquilla</t>
   </si>
   <si>
-    <t>edulis</t>
-  </si>
-  <si>
     <t>Fiji</t>
   </si>
   <si>
@@ -633,60 +300,24 @@
     <t>Cannolicchi</t>
   </si>
   <si>
-    <t>minor</t>
-  </si>
-  <si>
     <t>Fasolari</t>
   </si>
   <si>
-    <t>Callista</t>
-  </si>
-  <si>
-    <t>chione</t>
-  </si>
-  <si>
     <t>Tartufi</t>
   </si>
   <si>
-    <t>verrucosa</t>
-  </si>
-  <si>
     <t>Telline</t>
   </si>
   <si>
-    <t>Donax</t>
-  </si>
-  <si>
-    <t>trunculus</t>
-  </si>
-  <si>
     <t>Vongola, Stripped venus clam</t>
   </si>
   <si>
-    <t>Chamelea</t>
-  </si>
-  <si>
-    <t>gallina</t>
-  </si>
-  <si>
     <t>Vongole longone</t>
   </si>
   <si>
-    <t>Venerupis</t>
-  </si>
-  <si>
-    <t>aurea</t>
-  </si>
-  <si>
     <t>Vongole veraci, True clam</t>
   </si>
   <si>
-    <t>Tapes</t>
-  </si>
-  <si>
-    <t>decussatus</t>
-  </si>
-  <si>
     <t>Japan</t>
   </si>
   <si>
@@ -699,90 +330,36 @@
     <t>Common squid</t>
   </si>
   <si>
-    <t>Todarodes</t>
-  </si>
-  <si>
-    <t>pacificus</t>
-  </si>
-  <si>
     <t>Jack mackerel</t>
   </si>
   <si>
-    <t>Trachurus</t>
-  </si>
-  <si>
     <t>Pacific saury</t>
   </si>
   <si>
     <t>Finfish - Pelagic, Highly Migratory Species</t>
   </si>
   <si>
-    <t>Cololabis</t>
-  </si>
-  <si>
-    <t>saira</t>
-  </si>
-  <si>
     <t>Red snow crab</t>
   </si>
   <si>
-    <t>Chionoecetes</t>
-  </si>
-  <si>
     <t>Sandeel</t>
   </si>
   <si>
-    <t>Ammodytes</t>
-  </si>
-  <si>
-    <t>personatus</t>
-  </si>
-  <si>
     <t>Sandfish</t>
   </si>
   <si>
-    <t>Arctoscopus</t>
-  </si>
-  <si>
-    <t>japonicas</t>
-  </si>
-  <si>
     <t>Sardine</t>
   </si>
   <si>
-    <t>Sardinops</t>
-  </si>
-  <si>
-    <t>melanostictus</t>
-  </si>
-  <si>
     <t>Small pink shrimp</t>
   </si>
   <si>
-    <t>Sergia</t>
-  </si>
-  <si>
-    <t>lucens</t>
-  </si>
-  <si>
     <t>Walleye pollock</t>
   </si>
   <si>
-    <t>Theragra</t>
-  </si>
-  <si>
-    <t>chalcogramma</t>
-  </si>
-  <si>
     <t>Yellowtail</t>
   </si>
   <si>
-    <t>Seriola</t>
-  </si>
-  <si>
-    <t>quinqueradiata</t>
-  </si>
-  <si>
     <t>Mexico</t>
   </si>
   <si>
@@ -795,57 +372,18 @@
     <t>Almeja generosa</t>
   </si>
   <si>
-    <t>Panopea</t>
-  </si>
-  <si>
-    <t>globosa</t>
-  </si>
-  <si>
     <t>Abulon Amarillo</t>
   </si>
   <si>
-    <t>corrugata</t>
-  </si>
-  <si>
     <t>Abulon Azul</t>
   </si>
   <si>
-    <t>fulgens</t>
-  </si>
-  <si>
-    <t>Astraea</t>
-  </si>
-  <si>
-    <t>turbanica</t>
-  </si>
-  <si>
-    <t>undosa</t>
-  </si>
-  <si>
     <t>Red rock lobster</t>
   </si>
   <si>
-    <t>Panulirus</t>
-  </si>
-  <si>
-    <t>interruptus</t>
-  </si>
-  <si>
     <t>Callo de hacha</t>
   </si>
   <si>
-    <t>Atrina</t>
-  </si>
-  <si>
-    <t>tuberculosa</t>
-  </si>
-  <si>
-    <t>Pinna</t>
-  </si>
-  <si>
-    <t>rugosa</t>
-  </si>
-  <si>
     <t>Caribbean spiny lobster</t>
   </si>
   <si>
@@ -882,12 +420,6 @@
     <t>Percebe</t>
   </si>
   <si>
-    <t>Pollicipes</t>
-  </si>
-  <si>
-    <t>pollicipes</t>
-  </si>
-  <si>
     <t>Sri Lanka</t>
   </si>
   <si>
@@ -897,33 +429,15 @@
     <t>Green tiger prawn</t>
   </si>
   <si>
-    <t>Penaeus</t>
-  </si>
-  <si>
-    <t>semisulcatus</t>
-  </si>
-  <si>
     <t>Kadal shrimp</t>
   </si>
   <si>
-    <t>Metapenaeus</t>
-  </si>
-  <si>
-    <t>dobsoni</t>
-  </si>
-  <si>
     <t>Moyebi shrimp</t>
   </si>
   <si>
-    <t>moyebi</t>
-  </si>
-  <si>
     <t>Penaeid shrimp</t>
   </si>
   <si>
-    <t>indicus</t>
-  </si>
-  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -936,12 +450,6 @@
     <t>Northern shrimp</t>
   </si>
   <si>
-    <t>Pandalus</t>
-  </si>
-  <si>
-    <t>borealis</t>
-  </si>
-  <si>
     <t>Vanuatu</t>
   </si>
   <si>
@@ -957,17 +465,317 @@
     <t>Ben Tre hard clams</t>
   </si>
   <si>
-    <t>Meretrix</t>
-  </si>
-  <si>
-    <t>lyrata</t>
+    <t>Haliotis rufescens</t>
+  </si>
+  <si>
+    <t>Macrocystis pyrifera</t>
+  </si>
+  <si>
+    <t>Protothaca thaca</t>
+  </si>
+  <si>
+    <t>Venus antiqua</t>
+  </si>
+  <si>
+    <t>Normanichthys crockeri</t>
+  </si>
+  <si>
+    <t>Athyionidium chilensis</t>
+  </si>
+  <si>
+    <t>Pattalus mollis</t>
+  </si>
+  <si>
+    <t>Argobuccinum spp</t>
+  </si>
+  <si>
+    <t>Argobuccinum argus</t>
+  </si>
+  <si>
+    <t>Adelomelon ancilla</t>
+  </si>
+  <si>
+    <t>Xanthochorus cassidiformis</t>
+  </si>
+  <si>
+    <t>Tegula atra</t>
+  </si>
+  <si>
+    <t>Trophon spp</t>
+  </si>
+  <si>
+    <t>Chorus giganteus</t>
+  </si>
+  <si>
+    <t>Lithodes antarctica</t>
+  </si>
+  <si>
+    <t>Paralomis granulosa</t>
+  </si>
+  <si>
+    <t>Gelidium spp</t>
+  </si>
+  <si>
+    <t>Chondracanthus chamissoi</t>
+  </si>
+  <si>
+    <t>Calyptraea trochiformis</t>
+  </si>
+  <si>
+    <t>Aulacomya ater</t>
+  </si>
+  <si>
+    <t>Mytilus chilensis</t>
+  </si>
+  <si>
+    <t>Choromytilus chorus</t>
+  </si>
+  <si>
+    <t>Durvillaea antarctica</t>
+  </si>
+  <si>
+    <t>Scomber japonicus</t>
+  </si>
+  <si>
+    <t>Gari solida</t>
+  </si>
+  <si>
+    <t>Semele solida</t>
+  </si>
+  <si>
+    <t>Loxechinus albus</t>
+  </si>
+  <si>
+    <t>Perna perna</t>
+  </si>
+  <si>
+    <t>Macrocystis integrifolia</t>
+  </si>
+  <si>
+    <t>Lessonia nigrescens</t>
+  </si>
+  <si>
+    <t>Lessonia trabeculata</t>
+  </si>
+  <si>
+    <t>Homalaspis plana</t>
+  </si>
+  <si>
+    <t>Cancer setosus</t>
+  </si>
+  <si>
+    <t>Cancer coronatus</t>
+  </si>
+  <si>
+    <t>Sepia bertheloti</t>
+  </si>
+  <si>
+    <t>Fissurella bridgessi</t>
+  </si>
+  <si>
+    <t>Fissurella nigra</t>
+  </si>
+  <si>
+    <t>Fissurella pulchra</t>
+  </si>
+  <si>
+    <t>Fissurella spp</t>
+  </si>
+  <si>
+    <t>Fissurella costata</t>
+  </si>
+  <si>
+    <t>Fissurella latimarginata</t>
+  </si>
+  <si>
+    <t>Fissurella picta</t>
+  </si>
+  <si>
+    <t>Fissurella maxima</t>
+  </si>
+  <si>
+    <t>Fissurella cumingi</t>
+  </si>
+  <si>
+    <t>Thais chocolata</t>
+  </si>
+  <si>
+    <t>Concholepas concholepas</t>
+  </si>
+  <si>
+    <t>Mazzaella laminariodes</t>
+  </si>
+  <si>
+    <t>Sarcothalia crispata</t>
+  </si>
+  <si>
+    <t>Gigartina skottsbergii</t>
+  </si>
+  <si>
+    <t>Mesodesma donacium</t>
+  </si>
+  <si>
+    <t>Opisthonema oglinum</t>
+  </si>
+  <si>
+    <t>Ensis macha</t>
+  </si>
+  <si>
+    <t>Tagelus dombeii</t>
+  </si>
+  <si>
+    <t>Argopecten purpuratus</t>
+  </si>
+  <si>
+    <t>Chlamys vitrea</t>
+  </si>
+  <si>
+    <t>Gracilaria chilensis</t>
+  </si>
+  <si>
+    <t>Austromegabalanus psittacus</t>
+  </si>
+  <si>
+    <t>Odontocymbiola magallanica</t>
+  </si>
+  <si>
+    <t>Pyura chilensis</t>
+  </si>
+  <si>
+    <t>Enteroctopus megalocyathus</t>
+  </si>
+  <si>
+    <t>Octopus mimus</t>
+  </si>
+  <si>
+    <t>Brama australis</t>
+  </si>
+  <si>
+    <t>Sprattus fuegensis</t>
+  </si>
+  <si>
+    <t>Pecten maximus</t>
+  </si>
+  <si>
+    <t>Mulinia spp</t>
+  </si>
+  <si>
+    <t>Mulinia edulis</t>
+  </si>
+  <si>
+    <t>Ensis minor</t>
+  </si>
+  <si>
+    <t>Callista chione</t>
+  </si>
+  <si>
+    <t>Venus verrucosa</t>
+  </si>
+  <si>
+    <t>Donax trunculus</t>
+  </si>
+  <si>
+    <t>Chamelea gallina</t>
+  </si>
+  <si>
+    <t>Venerupis aurea</t>
+  </si>
+  <si>
+    <t>Tapes decussatus</t>
+  </si>
+  <si>
+    <t>Haliotis spp</t>
+  </si>
+  <si>
+    <t>Todarodes pacificus</t>
+  </si>
+  <si>
+    <t>Trachurus japonicus</t>
+  </si>
+  <si>
+    <t>Cololabis saira</t>
+  </si>
+  <si>
+    <t>Chionoecetes japonicus</t>
+  </si>
+  <si>
+    <t>Ammodytes personatus</t>
+  </si>
+  <si>
+    <t>Arctoscopus japonicas</t>
+  </si>
+  <si>
+    <t>Sardinops melanostictus</t>
+  </si>
+  <si>
+    <t>Sergia lucens</t>
+  </si>
+  <si>
+    <t>Theragra chalcogramma</t>
+  </si>
+  <si>
+    <t>Seriola quinqueradiata</t>
+  </si>
+  <si>
+    <t>Panopea globosa</t>
+  </si>
+  <si>
+    <t>Haliotis corrugata</t>
+  </si>
+  <si>
+    <t>Haliotis fulgens</t>
+  </si>
+  <si>
+    <t>Astraea turbanica</t>
+  </si>
+  <si>
+    <t>Astraea undosa</t>
+  </si>
+  <si>
+    <t>Panulirus interruptus</t>
+  </si>
+  <si>
+    <t>Atrina tuberculosa</t>
+  </si>
+  <si>
+    <t>Pinna rugosa</t>
+  </si>
+  <si>
+    <t>Panulirus argus</t>
+  </si>
+  <si>
+    <t>Pollicipes pollicipes</t>
+  </si>
+  <si>
+    <t>Penaeus semisulcatus</t>
+  </si>
+  <si>
+    <t>Metapenaeus dobsoni</t>
+  </si>
+  <si>
+    <t>Metapenaeus moyebi</t>
+  </si>
+  <si>
+    <t>Penaeus indicus</t>
+  </si>
+  <si>
+    <t>Pandalus borealis</t>
+  </si>
+  <si>
+    <t>Meretrix lyrata</t>
+  </si>
+  <si>
+    <t>SciName</t>
+  </si>
+  <si>
+    <t>turf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -979,6 +787,14 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1001,8 +817,204 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
@@ -1011,8 +1023,204 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="198">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="196" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1342,10 +1550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I152"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="E144" sqref="E144"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1353,21 +1561,22 @@
     <col min="3" max="3" width="18.83203125" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -1376,3740 +1585,3936 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="H1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="30">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1991</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1991</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="H3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1991</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>1991</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1991</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="30">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>1991</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1991</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="G7" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1991</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>1991</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="30">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>1991</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>1991</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>1991</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H11" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12">
+        <v>1991</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="30">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>1991</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1" t="s">
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="H12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>1991</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>1991</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" ht="30">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>1991</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H14" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>1991</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H15" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="30">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>1991</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="30">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>1991</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8">
-        <v>1991</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>1991</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="30">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1991</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="30">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>1991</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="30">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>1991</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="30">
-      <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13">
-        <v>1991</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="30">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>1991</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="30">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15">
-        <v>1991</v>
-      </c>
-      <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="30">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16">
-        <v>1991</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="G16" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>56</v>
+        <v>162</v>
+      </c>
+      <c r="H16" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>1991</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>59</v>
+        <v>163</v>
+      </c>
+      <c r="H17" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>1991</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>36</v>
+        <v>164</v>
+      </c>
+      <c r="H18" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B19">
         <v>1991</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>64</v>
+        <v>165</v>
+      </c>
+      <c r="H19" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B20">
         <v>1991</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>67</v>
+        <v>166</v>
+      </c>
+      <c r="H20" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B21">
         <v>1991</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>70</v>
+        <v>167</v>
+      </c>
+      <c r="H21" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B22">
         <v>1991</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>31</v>
+        <v>168</v>
+      </c>
+      <c r="H22" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B23">
         <v>1991</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>73</v>
+        <v>33</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>75</v>
+        <v>169</v>
+      </c>
+      <c r="H23" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24">
         <v>1991</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>56</v>
+        <v>170</v>
+      </c>
+      <c r="H24" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="30">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B25">
         <v>1991</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>81</v>
+        <v>171</v>
+      </c>
+      <c r="H25" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="30">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B26">
         <v>1991</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>84</v>
+        <v>172</v>
+      </c>
+      <c r="H26" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="30">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B27">
         <v>1991</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>84</v>
+        <v>173</v>
+      </c>
+      <c r="H27" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B28">
         <v>1991</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>89</v>
+        <v>174</v>
+      </c>
+      <c r="H28" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="30">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B29">
         <v>1991</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="F29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H29" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>1991</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="30">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30">
-        <v>1991</v>
-      </c>
-      <c r="C30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>94</v>
+        <v>176</v>
+      </c>
+      <c r="H30" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B31">
         <v>1991</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>97</v>
+        <v>177</v>
+      </c>
+      <c r="H31" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B32">
         <v>1991</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>99</v>
+        <v>178</v>
+      </c>
+      <c r="H32" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="30">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B33">
         <v>1991</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>102</v>
+        <v>179</v>
+      </c>
+      <c r="H33" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="30">
       <c r="A34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B34">
         <v>1991</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>105</v>
+        <v>180</v>
+      </c>
+      <c r="H34" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="30">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B35">
         <v>1991</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>107</v>
+        <v>181</v>
+      </c>
+      <c r="H35" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="30">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B36">
         <v>1991</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>110</v>
+        <v>182</v>
+      </c>
+      <c r="H36" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="30">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B37">
         <v>1991</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>113</v>
+        <v>183</v>
+      </c>
+      <c r="H37" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="30">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B38">
         <v>1991</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>114</v>
+        <v>184</v>
+      </c>
+      <c r="H38" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="30">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B39">
         <v>1991</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>115</v>
+        <v>185</v>
+      </c>
+      <c r="H39" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="30">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B40">
         <v>1991</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>111</v>
+        <v>48</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>36</v>
+        <v>186</v>
+      </c>
+      <c r="H40" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="30">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B41">
         <v>1991</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>117</v>
+        <v>187</v>
+      </c>
+      <c r="H41" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="30">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B42">
         <v>1991</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>119</v>
+        <v>188</v>
+      </c>
+      <c r="H42" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="30">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B43">
         <v>1991</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>121</v>
+        <v>189</v>
+      </c>
+      <c r="H43" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="30">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B44">
         <v>1991</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>123</v>
+        <v>190</v>
+      </c>
+      <c r="H44" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="30">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B45">
         <v>1991</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>125</v>
+        <v>191</v>
+      </c>
+      <c r="H45" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="30">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B46">
         <v>1991</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>126</v>
+        <v>54</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>128</v>
+        <v>192</v>
+      </c>
+      <c r="H46" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="30">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B47">
         <v>1991</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="F47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H47" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48">
+        <v>1991</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="30">
-      <c r="A48" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48">
-        <v>1991</v>
-      </c>
-      <c r="C48" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G48" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>134</v>
+        <v>194</v>
+      </c>
+      <c r="H48" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B49">
         <v>1991</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>137</v>
+        <v>195</v>
+      </c>
+      <c r="H49" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B50">
         <v>1991</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>140</v>
+        <v>196</v>
+      </c>
+      <c r="H50" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="30">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B51">
         <v>1991</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="30">
+        <v>197</v>
+      </c>
+      <c r="H51" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B52">
         <v>1991</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>144</v>
+        <v>60</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>146</v>
+        <v>198</v>
+      </c>
+      <c r="H52" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="30">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B53">
         <v>1991</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>149</v>
+        <v>199</v>
+      </c>
+      <c r="H53" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="30">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B54">
         <v>1991</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>151</v>
+        <v>200</v>
+      </c>
+      <c r="H54" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="30">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B55">
         <v>1991</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>152</v>
+        <v>62</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>154</v>
+        <v>201</v>
+      </c>
+      <c r="H55" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="30">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B56">
         <v>1991</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>155</v>
+        <v>63</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>157</v>
+        <v>202</v>
+      </c>
+      <c r="H56" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B57">
         <v>1991</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>158</v>
+        <v>64</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>31</v>
+        <v>203</v>
+      </c>
+      <c r="H57" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="30">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B58">
         <v>1991</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>162</v>
+        <v>204</v>
+      </c>
+      <c r="H58" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="30">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B59">
         <v>1991</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>165</v>
+        <v>205</v>
+      </c>
+      <c r="H59" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B60">
         <v>1991</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>166</v>
+        <v>67</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>31</v>
+        <v>206</v>
+      </c>
+      <c r="H60" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="30">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B61">
         <v>1991</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>168</v>
+        <v>68</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>170</v>
+        <v>207</v>
+      </c>
+      <c r="H61" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="30">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B62">
         <v>1991</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>168</v>
+        <v>68</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>172</v>
+        <v>208</v>
+      </c>
+      <c r="H62" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="45">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B63">
         <v>1991</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>173</v>
+        <v>70</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>174</v>
+        <v>71</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>176</v>
+        <v>209</v>
+      </c>
+      <c r="H63" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B64">
         <v>1991</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>177</v>
+        <v>72</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>179</v>
+        <v>210</v>
+      </c>
+      <c r="H64" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="30">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B65">
         <v>1991</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>182</v>
+        <v>211</v>
+      </c>
+      <c r="H65" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="30">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B66">
         <v>1991</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>36</v>
+        <v>212</v>
+      </c>
+      <c r="H66" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="30">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B67">
         <v>1991</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>185</v>
+        <v>75</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>186</v>
+        <v>213</v>
+      </c>
+      <c r="H67" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="B68">
         <v>1942</v>
       </c>
       <c r="C68" t="s">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="D68" t="s">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H68" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="69" spans="1:8" ht="30">
       <c r="A69" t="s">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="B69">
         <v>1942</v>
       </c>
       <c r="C69" t="s">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="D69" t="s">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H69" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>1942</v>
       </c>
       <c r="C70" t="s">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="D70" t="s">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>193</v>
+        <v>82</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H70" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="71" spans="1:8" ht="30">
       <c r="A71" t="s">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="B71">
         <v>1942</v>
       </c>
       <c r="C71" t="s">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="D71" t="s">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>194</v>
+        <v>83</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H71" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="B72">
         <v>1942</v>
       </c>
       <c r="C72" t="s">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="D72" t="s">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>195</v>
+        <v>84</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H72" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="B73">
         <v>1942</v>
       </c>
       <c r="C73" t="s">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="D73" t="s">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>171</v>
+        <v>69</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H73" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="B74">
         <v>1942</v>
       </c>
       <c r="C74" t="s">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="D74" t="s">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>196</v>
+        <v>85</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H74" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="B75">
         <v>1942</v>
       </c>
       <c r="C75" t="s">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="D75" t="s">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H75" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="B76">
         <v>1942</v>
       </c>
       <c r="C76" t="s">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="D76" t="s">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H76" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" t="s">
-        <v>187</v>
+        <v>76</v>
       </c>
       <c r="B77">
         <v>1942</v>
       </c>
       <c r="C77" t="s">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="D77" t="s">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>199</v>
+        <v>88</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H77" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="78" spans="1:8" ht="30">
       <c r="A78" t="s">
-        <v>201</v>
+        <v>90</v>
       </c>
       <c r="B78">
         <v>1996</v>
       </c>
       <c r="C78" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="D78" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>203</v>
+        <v>92</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>204</v>
+        <v>214</v>
+      </c>
+      <c r="H78" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="30">
       <c r="A79" t="s">
-        <v>201</v>
+        <v>90</v>
       </c>
       <c r="B79">
         <v>1996</v>
       </c>
       <c r="C79" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="D79" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>205</v>
+        <v>93</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H79" s="1" t="s">
-        <v>207</v>
+        <v>215</v>
+      </c>
+      <c r="H79" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="30">
       <c r="A80" t="s">
-        <v>201</v>
+        <v>90</v>
       </c>
       <c r="B80">
         <v>1996</v>
       </c>
       <c r="C80" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="D80" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>208</v>
+        <v>94</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>209</v>
+        <v>216</v>
+      </c>
+      <c r="H80" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="30">
       <c r="A81" t="s">
-        <v>201</v>
+        <v>90</v>
       </c>
       <c r="B81">
         <v>1996</v>
       </c>
       <c r="C81" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="D81" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>210</v>
+        <v>95</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
+      </c>
+      <c r="H81" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="45">
       <c r="A82" t="s">
-        <v>201</v>
+        <v>90</v>
       </c>
       <c r="B82">
         <v>1996</v>
       </c>
       <c r="C82" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="D82" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>213</v>
+        <v>96</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="H82" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
+      </c>
+      <c r="H82" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="30">
       <c r="A83" t="s">
-        <v>201</v>
+        <v>90</v>
       </c>
       <c r="B83">
         <v>1996</v>
       </c>
       <c r="C83" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="D83" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>216</v>
+        <v>97</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="H83" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="30">
       <c r="A84" t="s">
-        <v>201</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>1996</v>
       </c>
       <c r="C84" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="D84" t="s">
-        <v>202</v>
+        <v>91</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>219</v>
+        <v>98</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="H84" s="1" t="s">
-        <v>221</v>
+      <c r="H84" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="30">
       <c r="A85" t="s">
-        <v>222</v>
+        <v>99</v>
       </c>
       <c r="B85">
         <v>1949</v>
       </c>
       <c r="C85" t="s">
-        <v>223</v>
+        <v>100</v>
       </c>
       <c r="D85" t="s">
-        <v>223</v>
+        <v>100</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>224</v>
+        <v>101</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>36</v>
+        <v>221</v>
+      </c>
+      <c r="H85" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="30">
       <c r="A86" t="s">
-        <v>222</v>
+        <v>99</v>
       </c>
       <c r="B86">
         <v>1949</v>
       </c>
       <c r="C86" t="s">
-        <v>223</v>
+        <v>100</v>
       </c>
       <c r="D86" t="s">
-        <v>223</v>
+        <v>100</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>78</v>
+        <v>35</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H86" s="1" t="s">
-        <v>81</v>
+        <v>171</v>
+      </c>
+      <c r="H86" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="30">
       <c r="A87" t="s">
-        <v>222</v>
+        <v>99</v>
       </c>
       <c r="B87">
         <v>1949</v>
       </c>
       <c r="C87" t="s">
-        <v>223</v>
+        <v>100</v>
       </c>
       <c r="D87" t="s">
-        <v>223</v>
+        <v>100</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>225</v>
+        <v>102</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
+      </c>
+      <c r="H87" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>222</v>
+        <v>99</v>
       </c>
       <c r="B88">
         <v>1949</v>
       </c>
       <c r="C88" t="s">
+        <v>100</v>
+      </c>
+      <c r="D88" t="s">
+        <v>100</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D88" t="s">
-        <v>223</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="H88" s="1" t="s">
-        <v>81</v>
+      <c r="H88" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="45">
       <c r="A89" t="s">
-        <v>222</v>
+        <v>99</v>
       </c>
       <c r="B89">
         <v>1949</v>
       </c>
       <c r="C89" t="s">
-        <v>223</v>
+        <v>100</v>
       </c>
       <c r="D89" t="s">
-        <v>223</v>
+        <v>100</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>230</v>
+        <v>104</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>231</v>
+        <v>105</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="H89" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
+      </c>
+      <c r="H89" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="30">
       <c r="A90" t="s">
-        <v>222</v>
+        <v>99</v>
       </c>
       <c r="B90">
         <v>1949</v>
       </c>
       <c r="C90" t="s">
-        <v>223</v>
+        <v>100</v>
       </c>
       <c r="D90" t="s">
-        <v>223</v>
+        <v>100</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>234</v>
+        <v>106</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="30">
+        <v>225</v>
+      </c>
+      <c r="H90" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="45">
       <c r="A91" t="s">
-        <v>222</v>
+        <v>99</v>
       </c>
       <c r="B91">
         <v>1949</v>
       </c>
       <c r="C91" t="s">
-        <v>223</v>
+        <v>100</v>
       </c>
       <c r="D91" t="s">
-        <v>223</v>
+        <v>100</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>236</v>
+        <v>107</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H91" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="30">
+        <v>226</v>
+      </c>
+      <c r="H91" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="45">
       <c r="A92" t="s">
-        <v>222</v>
+        <v>99</v>
       </c>
       <c r="B92">
         <v>1949</v>
       </c>
       <c r="C92" t="s">
-        <v>223</v>
+        <v>100</v>
       </c>
       <c r="D92" t="s">
-        <v>223</v>
+        <v>100</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>239</v>
+        <v>108</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="30">
+        <v>227</v>
+      </c>
+      <c r="H92" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>222</v>
+        <v>99</v>
       </c>
       <c r="B93">
         <v>1949</v>
       </c>
       <c r="C93" t="s">
-        <v>223</v>
+        <v>100</v>
       </c>
       <c r="D93" t="s">
-        <v>223</v>
+        <v>100</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>242</v>
+        <v>109</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="H93" s="1" t="s">
-        <v>244</v>
+        <v>228</v>
+      </c>
+      <c r="H93" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="30">
       <c r="A94" t="s">
-        <v>222</v>
+        <v>99</v>
       </c>
       <c r="B94">
         <v>1949</v>
       </c>
       <c r="C94" t="s">
-        <v>223</v>
+        <v>100</v>
       </c>
       <c r="D94" t="s">
-        <v>223</v>
+        <v>100</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>245</v>
+        <v>110</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="30">
+        <v>229</v>
+      </c>
+      <c r="H94" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="45">
       <c r="A95" t="s">
-        <v>222</v>
+        <v>99</v>
       </c>
       <c r="B95">
         <v>1949</v>
       </c>
       <c r="C95" t="s">
-        <v>223</v>
+        <v>100</v>
       </c>
       <c r="D95" t="s">
-        <v>223</v>
+        <v>100</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>248</v>
+        <v>111</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="H95" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="30">
+        <v>230</v>
+      </c>
+      <c r="H95" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>222</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>1949</v>
       </c>
       <c r="C96" t="s">
-        <v>223</v>
+        <v>100</v>
       </c>
       <c r="D96" t="s">
-        <v>223</v>
+        <v>100</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>251</v>
+        <v>112</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>79</v>
+        <v>36</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="H96" s="1" t="s">
-        <v>253</v>
+        <v>231</v>
+      </c>
+      <c r="H96" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="30">
       <c r="A97" t="s">
-        <v>254</v>
+        <v>113</v>
       </c>
       <c r="B97">
         <v>2003</v>
       </c>
       <c r="C97" t="s">
-        <v>255</v>
+        <v>114</v>
       </c>
       <c r="D97" t="s">
-        <v>256</v>
+        <v>115</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>257</v>
+        <v>116</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>259</v>
+        <v>232</v>
+      </c>
+      <c r="H97" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="30">
       <c r="A98" t="s">
-        <v>254</v>
+        <v>113</v>
       </c>
       <c r="B98">
         <v>1992</v>
       </c>
       <c r="C98" t="s">
-        <v>255</v>
+        <v>114</v>
       </c>
       <c r="D98" t="s">
-        <v>256</v>
+        <v>115</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>260</v>
+        <v>117</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>261</v>
+        <v>233</v>
+      </c>
+      <c r="H98" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="30">
       <c r="A99" t="s">
-        <v>254</v>
+        <v>113</v>
       </c>
       <c r="B99">
         <v>1992</v>
       </c>
       <c r="C99" t="s">
-        <v>255</v>
+        <v>114</v>
       </c>
       <c r="D99" t="s">
-        <v>256</v>
+        <v>115</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>262</v>
+        <v>118</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>263</v>
+        <v>234</v>
+      </c>
+      <c r="H99" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="30">
       <c r="A100" t="s">
-        <v>254</v>
+        <v>113</v>
       </c>
       <c r="B100">
         <v>1992</v>
       </c>
       <c r="C100" t="s">
-        <v>255</v>
+        <v>114</v>
       </c>
       <c r="D100" t="s">
-        <v>256</v>
+        <v>115</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>265</v>
+        <v>235</v>
+      </c>
+      <c r="H100" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="30">
       <c r="A101" t="s">
-        <v>254</v>
+        <v>113</v>
       </c>
       <c r="B101">
         <v>1992</v>
       </c>
       <c r="C101" t="s">
-        <v>255</v>
+        <v>114</v>
       </c>
       <c r="D101" t="s">
-        <v>256</v>
+        <v>115</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>266</v>
+        <v>236</v>
+      </c>
+      <c r="H101" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="30">
       <c r="A102" t="s">
-        <v>254</v>
+        <v>113</v>
       </c>
       <c r="B102">
         <v>1992</v>
       </c>
       <c r="C102" t="s">
-        <v>255</v>
+        <v>114</v>
       </c>
       <c r="D102" t="s">
-        <v>256</v>
+        <v>115</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>267</v>
+        <v>119</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>269</v>
+        <v>237</v>
+      </c>
+      <c r="H102" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="30">
       <c r="A103" t="s">
-        <v>254</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>1976</v>
       </c>
       <c r="C103" t="s">
-        <v>255</v>
+        <v>114</v>
       </c>
       <c r="D103" t="s">
-        <v>256</v>
+        <v>115</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>272</v>
+        <v>238</v>
+      </c>
+      <c r="H103" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="30">
       <c r="A104" t="s">
-        <v>254</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>1976</v>
       </c>
       <c r="C104" t="s">
-        <v>255</v>
+        <v>114</v>
       </c>
       <c r="D104" t="s">
-        <v>256</v>
+        <v>115</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>270</v>
+        <v>120</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="H104" s="1" t="s">
-        <v>274</v>
+        <v>239</v>
+      </c>
+      <c r="H104" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="30">
       <c r="A105" t="s">
-        <v>254</v>
+        <v>113</v>
       </c>
       <c r="B105">
         <v>1969</v>
       </c>
       <c r="C105" t="s">
-        <v>255</v>
+        <v>114</v>
       </c>
       <c r="D105" t="s">
-        <v>256</v>
+        <v>115</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>275</v>
+        <v>121</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>38</v>
+        <v>240</v>
+      </c>
+      <c r="H105" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>276</v>
+        <v>122</v>
       </c>
       <c r="B106" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="C106" t="s">
-        <v>277</v>
+        <v>123</v>
       </c>
       <c r="D106" t="s">
-        <v>277</v>
+        <v>123</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H106" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="107" spans="1:8" ht="30">
       <c r="A107" t="s">
-        <v>276</v>
+        <v>122</v>
       </c>
       <c r="B107" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="C107" t="s">
-        <v>277</v>
+        <v>123</v>
       </c>
       <c r="D107" t="s">
-        <v>277</v>
+        <v>123</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H107" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>276</v>
+        <v>122</v>
       </c>
       <c r="B108" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="C108" t="s">
-        <v>277</v>
+        <v>123</v>
       </c>
       <c r="D108" t="s">
-        <v>277</v>
+        <v>123</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>193</v>
+        <v>82</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H108" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="109" spans="1:8" ht="30">
       <c r="A109" t="s">
-        <v>276</v>
+        <v>122</v>
       </c>
       <c r="B109" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="C109" t="s">
-        <v>277</v>
+        <v>123</v>
       </c>
       <c r="D109" t="s">
-        <v>277</v>
+        <v>123</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>194</v>
+        <v>83</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H109" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>276</v>
+        <v>122</v>
       </c>
       <c r="B110" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="C110" t="s">
-        <v>277</v>
+        <v>123</v>
       </c>
       <c r="D110" t="s">
-        <v>277</v>
+        <v>123</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>195</v>
+        <v>84</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H110" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>276</v>
+        <v>122</v>
       </c>
       <c r="B111" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="C111" t="s">
-        <v>277</v>
+        <v>123</v>
       </c>
       <c r="D111" t="s">
-        <v>277</v>
+        <v>123</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>171</v>
+        <v>69</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H111" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>276</v>
+        <v>122</v>
       </c>
       <c r="B112" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="C112" t="s">
-        <v>277</v>
+        <v>123</v>
       </c>
       <c r="D112" t="s">
-        <v>277</v>
+        <v>123</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>196</v>
+        <v>85</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H112" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>276</v>
+        <v>122</v>
       </c>
       <c r="B113" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="C113" t="s">
-        <v>277</v>
+        <v>123</v>
       </c>
       <c r="D113" t="s">
-        <v>277</v>
+        <v>123</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G113" s="1"/>
-      <c r="H113" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H113" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>276</v>
+        <v>122</v>
       </c>
       <c r="B114" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="C114" t="s">
-        <v>277</v>
+        <v>123</v>
       </c>
       <c r="D114" t="s">
-        <v>277</v>
+        <v>123</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G114" s="1"/>
-      <c r="H114" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H114" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>276</v>
+        <v>122</v>
       </c>
       <c r="B115" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="C115" t="s">
-        <v>277</v>
+        <v>123</v>
       </c>
       <c r="D115" t="s">
-        <v>277</v>
+        <v>123</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>199</v>
+        <v>88</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H115" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>278</v>
+        <v>124</v>
       </c>
       <c r="B116">
         <v>1988</v>
       </c>
       <c r="C116" t="s">
-        <v>279</v>
+        <v>125</v>
       </c>
       <c r="D116" t="s">
-        <v>280</v>
+        <v>126</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H116" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" spans="1:8" ht="30">
       <c r="A117" t="s">
-        <v>278</v>
+        <v>124</v>
       </c>
       <c r="B117">
         <v>1988</v>
       </c>
       <c r="C117" t="s">
-        <v>279</v>
+        <v>125</v>
       </c>
       <c r="D117" t="s">
-        <v>280</v>
+        <v>126</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" s="1"/>
-      <c r="H117" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H117" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>278</v>
+        <v>124</v>
       </c>
       <c r="B118">
         <v>1988</v>
       </c>
       <c r="C118" t="s">
-        <v>279</v>
+        <v>125</v>
       </c>
       <c r="D118" t="s">
-        <v>280</v>
+        <v>126</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>193</v>
+        <v>82</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H118" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="119" spans="1:8" ht="30">
       <c r="A119" t="s">
-        <v>278</v>
+        <v>124</v>
       </c>
       <c r="B119">
         <v>1988</v>
       </c>
       <c r="C119" t="s">
-        <v>279</v>
+        <v>125</v>
       </c>
       <c r="D119" t="s">
-        <v>280</v>
+        <v>126</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>194</v>
+        <v>83</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H119" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" t="s">
-        <v>278</v>
+        <v>124</v>
       </c>
       <c r="B120">
         <v>1988</v>
       </c>
       <c r="C120" t="s">
-        <v>279</v>
+        <v>125</v>
       </c>
       <c r="D120" t="s">
-        <v>280</v>
+        <v>126</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>195</v>
+        <v>84</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H120" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>278</v>
+        <v>124</v>
       </c>
       <c r="B121">
         <v>1988</v>
       </c>
       <c r="C121" t="s">
-        <v>279</v>
+        <v>125</v>
       </c>
       <c r="D121" t="s">
-        <v>280</v>
+        <v>126</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>171</v>
+        <v>69</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H121" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>278</v>
+        <v>124</v>
       </c>
       <c r="B122">
         <v>1988</v>
       </c>
       <c r="C122" t="s">
-        <v>279</v>
+        <v>125</v>
       </c>
       <c r="D122" t="s">
-        <v>280</v>
+        <v>126</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>196</v>
+        <v>85</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H122" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>278</v>
+        <v>124</v>
       </c>
       <c r="B123">
         <v>1988</v>
       </c>
       <c r="C123" t="s">
-        <v>279</v>
+        <v>125</v>
       </c>
       <c r="D123" t="s">
-        <v>280</v>
+        <v>126</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G123" s="1"/>
-      <c r="H123" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H123" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>278</v>
+        <v>124</v>
       </c>
       <c r="B124">
         <v>1988</v>
       </c>
       <c r="C124" t="s">
-        <v>279</v>
+        <v>125</v>
       </c>
       <c r="D124" t="s">
-        <v>280</v>
+        <v>126</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H124" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>278</v>
+        <v>124</v>
       </c>
       <c r="B125">
         <v>1988</v>
       </c>
       <c r="C125" t="s">
-        <v>279</v>
+        <v>125</v>
       </c>
       <c r="D125" t="s">
-        <v>280</v>
+        <v>126</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>199</v>
+        <v>88</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H125" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>281</v>
+        <v>127</v>
       </c>
       <c r="B126" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="C126" t="s">
-        <v>282</v>
+        <v>128</v>
       </c>
       <c r="D126" t="s">
-        <v>282</v>
+        <v>128</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H126" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="127" spans="1:8" ht="30">
       <c r="A127" t="s">
-        <v>281</v>
+        <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="C127" t="s">
-        <v>282</v>
+        <v>128</v>
       </c>
       <c r="D127" t="s">
-        <v>282</v>
+        <v>128</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H127" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>281</v>
+        <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="C128" t="s">
-        <v>282</v>
+        <v>128</v>
       </c>
       <c r="D128" t="s">
-        <v>282</v>
+        <v>128</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>193</v>
+        <v>82</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H128" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="129" spans="1:8" ht="30">
       <c r="A129" t="s">
-        <v>281</v>
+        <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="C129" t="s">
-        <v>282</v>
+        <v>128</v>
       </c>
       <c r="D129" t="s">
-        <v>282</v>
+        <v>128</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>194</v>
+        <v>83</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H129" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>281</v>
+        <v>127</v>
       </c>
       <c r="B130" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="C130" t="s">
-        <v>282</v>
+        <v>128</v>
       </c>
       <c r="D130" t="s">
-        <v>282</v>
+        <v>128</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>195</v>
+        <v>84</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H130" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>281</v>
+        <v>127</v>
       </c>
       <c r="B131" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="C131" t="s">
-        <v>282</v>
+        <v>128</v>
       </c>
       <c r="D131" t="s">
-        <v>282</v>
+        <v>128</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>171</v>
+        <v>69</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H131" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>281</v>
+        <v>127</v>
       </c>
       <c r="B132" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="C132" t="s">
-        <v>282</v>
+        <v>128</v>
       </c>
       <c r="D132" t="s">
-        <v>282</v>
+        <v>128</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>196</v>
+        <v>85</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H132" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>281</v>
+        <v>127</v>
       </c>
       <c r="B133" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="C133" t="s">
-        <v>282</v>
+        <v>128</v>
       </c>
       <c r="D133" t="s">
-        <v>282</v>
+        <v>128</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H133" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>281</v>
+        <v>127</v>
       </c>
       <c r="B134" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="C134" t="s">
-        <v>282</v>
+        <v>128</v>
       </c>
       <c r="D134" t="s">
-        <v>282</v>
+        <v>128</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H134" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>281</v>
+        <v>127</v>
       </c>
       <c r="B135" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="C135" t="s">
-        <v>282</v>
+        <v>128</v>
       </c>
       <c r="D135" t="s">
-        <v>282</v>
+        <v>128</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>199</v>
+        <v>88</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G135" s="1"/>
-      <c r="H135" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H135" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="136" spans="1:8" ht="30">
       <c r="A136" t="s">
-        <v>283</v>
+        <v>129</v>
       </c>
       <c r="B136">
         <v>1992</v>
       </c>
       <c r="C136" t="s">
-        <v>284</v>
+        <v>130</v>
       </c>
       <c r="D136" t="s">
-        <v>285</v>
+        <v>131</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>286</v>
+        <v>132</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="H136" s="1" t="s">
-        <v>288</v>
+        <v>241</v>
+      </c>
+      <c r="H136" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="30">
       <c r="A137" t="s">
-        <v>289</v>
+        <v>133</v>
       </c>
       <c r="B137" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="C137" t="s">
-        <v>290</v>
+        <v>134</v>
       </c>
       <c r="D137" t="s">
-        <v>290</v>
+        <v>134</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>291</v>
+        <v>135</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="H137" s="1" t="s">
-        <v>293</v>
+        <v>242</v>
+      </c>
+      <c r="H137" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="30">
       <c r="A138" t="s">
-        <v>289</v>
+        <v>133</v>
       </c>
       <c r="B138" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="C138" t="s">
-        <v>290</v>
+        <v>134</v>
       </c>
       <c r="D138" t="s">
-        <v>290</v>
+        <v>134</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>294</v>
+        <v>136</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>296</v>
+        <v>243</v>
+      </c>
+      <c r="H138" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="30">
       <c r="A139" t="s">
-        <v>289</v>
+        <v>133</v>
       </c>
       <c r="B139" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="C139" t="s">
-        <v>290</v>
+        <v>134</v>
       </c>
       <c r="D139" t="s">
-        <v>290</v>
+        <v>134</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>297</v>
+        <v>137</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="H139" s="1" t="s">
-        <v>298</v>
+        <v>244</v>
+      </c>
+      <c r="H139" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="30">
       <c r="A140" t="s">
-        <v>289</v>
+        <v>133</v>
       </c>
       <c r="B140" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="C140" t="s">
-        <v>290</v>
+        <v>134</v>
       </c>
       <c r="D140" t="s">
-        <v>290</v>
+        <v>134</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>299</v>
+        <v>138</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="H140" s="1" t="s">
-        <v>300</v>
+        <v>245</v>
+      </c>
+      <c r="H140" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="30">
       <c r="A141" t="s">
-        <v>301</v>
+        <v>139</v>
       </c>
       <c r="B141">
         <v>2004</v>
       </c>
       <c r="C141" t="s">
-        <v>302</v>
+        <v>140</v>
       </c>
       <c r="D141" t="s">
-        <v>303</v>
+        <v>141</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>304</v>
+        <v>142</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="H141" s="1" t="s">
-        <v>306</v>
+        <v>246</v>
+      </c>
+      <c r="H141" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>307</v>
+        <v>143</v>
       </c>
       <c r="B142" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="C142" t="s">
-        <v>308</v>
+        <v>144</v>
       </c>
       <c r="D142" t="s">
-        <v>308</v>
+        <v>144</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G142" s="1"/>
-      <c r="H142" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H142" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="143" spans="1:8" ht="30">
       <c r="A143" t="s">
-        <v>307</v>
+        <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="C143" t="s">
-        <v>308</v>
+        <v>144</v>
       </c>
       <c r="D143" t="s">
-        <v>308</v>
+        <v>144</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>192</v>
+        <v>81</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G143" s="1"/>
-      <c r="H143" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H143" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>307</v>
+        <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="C144" t="s">
-        <v>308</v>
+        <v>144</v>
       </c>
       <c r="D144" t="s">
-        <v>308</v>
+        <v>144</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>193</v>
+        <v>82</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H144" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="145" spans="1:8" ht="30">
       <c r="A145" t="s">
-        <v>307</v>
+        <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="C145" t="s">
-        <v>308</v>
+        <v>144</v>
       </c>
       <c r="D145" t="s">
-        <v>308</v>
+        <v>144</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>194</v>
+        <v>83</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G145" s="1"/>
-      <c r="H145" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H145" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>307</v>
+        <v>143</v>
       </c>
       <c r="B146" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="C146" t="s">
-        <v>308</v>
+        <v>144</v>
       </c>
       <c r="D146" t="s">
-        <v>308</v>
+        <v>144</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>195</v>
+        <v>84</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G146" s="1"/>
-      <c r="H146" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H146" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>307</v>
+        <v>143</v>
       </c>
       <c r="B147" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="C147" t="s">
-        <v>308</v>
+        <v>144</v>
       </c>
       <c r="D147" t="s">
-        <v>308</v>
+        <v>144</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>171</v>
+        <v>69</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H147" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>307</v>
+        <v>143</v>
       </c>
       <c r="B148" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="C148" t="s">
-        <v>308</v>
+        <v>144</v>
       </c>
       <c r="D148" t="s">
-        <v>308</v>
+        <v>144</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>196</v>
+        <v>85</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G148" s="1"/>
-      <c r="H148" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H148" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>307</v>
+        <v>143</v>
       </c>
       <c r="B149" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="C149" t="s">
-        <v>308</v>
+        <v>144</v>
       </c>
       <c r="D149" t="s">
-        <v>308</v>
+        <v>144</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>197</v>
+        <v>86</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G149" s="1"/>
-      <c r="H149" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H149" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>307</v>
+        <v>143</v>
       </c>
       <c r="B150" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="C150" t="s">
-        <v>308</v>
+        <v>144</v>
       </c>
       <c r="D150" t="s">
-        <v>308</v>
+        <v>144</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G150" s="1"/>
-      <c r="H150" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H150" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>307</v>
+        <v>143</v>
       </c>
       <c r="B151" t="s">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="C151" t="s">
-        <v>308</v>
+        <v>144</v>
       </c>
       <c r="D151" t="s">
-        <v>308</v>
+        <v>144</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>199</v>
+        <v>88</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="G151" s="1"/>
-      <c r="H151" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H151" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="152" spans="1:8" ht="30">
       <c r="A152" t="s">
-        <v>309</v>
+        <v>145</v>
       </c>
       <c r="B152">
         <v>1997</v>
       </c>
       <c r="C152" t="s">
-        <v>310</v>
+        <v>146</v>
       </c>
       <c r="D152" t="s">
-        <v>310</v>
+        <v>146</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>311</v>
+        <v>147</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="H152" s="1" t="s">
-        <v>313</v>
+        <v>247</v>
+      </c>
+      <c r="H152" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
